--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgusi\Documents\team-project-2181-swen-261-07-c-null\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1DF034B-9CB3-40E6-AEEA-5C005CA0145C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4320" windowWidth="18705" windowHeight="7545" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="4320" windowWidth="18710" windowHeight="7550" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Instructions</t>
   </si>
@@ -103,12 +109,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>fill in when doing cross-team or Freshman Seminar testing</t>
-  </si>
-  <si>
-    <t>Your team name as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers</t>
-  </si>
-  <si>
     <t>Tester initials; date; comments (required if test failed)</t>
   </si>
   <si>
@@ -118,12 +118,36 @@
 Save this test plan with a name formatted as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers.xslx.
 Submit this file per the instructions specified for the sprint submissions, cross-team testing, and Freshman Seminar testing.</t>
   </si>
+  <si>
+    <t>User Story Name:</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story Description: (highlight green for pass, red for fail) </t>
+  </si>
+  <si>
+    <t>Start a Game</t>
+  </si>
+  <si>
+    <t>Player Sign-in</t>
+  </si>
+  <si>
+    <t>team-project-2181-swen-261-07-c-null</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,16 +176,59 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF17394D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,11 +245,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,11 +295,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -271,197 +375,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -788,45 +709,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="106.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="217" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -836,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -844,7 +1081,7 @@
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
@@ -854,10 +1091,10 @@
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
     <col min="8" max="8" width="60" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="5"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -868,22 +1105,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -894,7 +1131,7 @@
       <c r="E2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -903,7 +1140,7 @@
       <c r="E3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -912,7 +1149,7 @@
       <c r="E4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -921,7 +1158,7 @@
       <c r="E5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -930,7 +1167,7 @@
       <c r="E6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -939,7 +1176,7 @@
       <c r="E7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -948,7 +1185,7 @@
       <c r="E8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -957,7 +1194,7 @@
       <c r="E9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -966,7 +1203,7 @@
       <c r="E10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
@@ -980,7 +1217,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -989,7 +1226,7 @@
       <c r="E12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -998,7 +1235,7 @@
       <c r="E13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -1007,7 +1244,7 @@
       <c r="E14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1016,7 +1253,7 @@
       <c r="E15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -1025,7 +1262,7 @@
       <c r="E16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -1034,7 +1271,7 @@
       <c r="E17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -1043,2948 +1280,2948 @@
       <c r="E18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C30" s="8"/>
       <c r="E30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C114" s="8"/>
       <c r="E114" s="8"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C115" s="8"/>
       <c r="E115" s="8"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C116" s="8"/>
       <c r="E116" s="8"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C117" s="8"/>
       <c r="E117" s="8"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C118" s="8"/>
       <c r="E118" s="8"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C119" s="8"/>
       <c r="E119" s="8"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C120" s="8"/>
       <c r="E120" s="8"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C121" s="8"/>
       <c r="E121" s="8"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C122" s="8"/>
       <c r="E122" s="8"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C123" s="8"/>
       <c r="E123" s="8"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C124" s="8"/>
       <c r="E124" s="8"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C125" s="8"/>
       <c r="E125" s="8"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C126" s="8"/>
       <c r="E126" s="8"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C127" s="8"/>
       <c r="E127" s="8"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C128" s="8"/>
       <c r="E128" s="8"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C129" s="8"/>
       <c r="E129" s="8"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C130" s="8"/>
       <c r="E130" s="8"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C131" s="8"/>
       <c r="E131" s="8"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C132" s="8"/>
       <c r="E132" s="8"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C133" s="8"/>
       <c r="E133" s="8"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C134" s="8"/>
       <c r="E134" s="8"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C135" s="8"/>
       <c r="E135" s="8"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C136" s="8"/>
       <c r="E136" s="8"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C137" s="8"/>
       <c r="E137" s="8"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C138" s="8"/>
       <c r="E138" s="8"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C139" s="8"/>
       <c r="E139" s="8"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C140" s="8"/>
       <c r="E140" s="8"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C141" s="8"/>
       <c r="E141" s="8"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C142" s="8"/>
       <c r="E142" s="8"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C143" s="8"/>
       <c r="E143" s="8"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C144" s="8"/>
       <c r="E144" s="8"/>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C145" s="8"/>
       <c r="E145" s="8"/>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C146" s="8"/>
       <c r="E146" s="8"/>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C147" s="8"/>
       <c r="E147" s="8"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C148" s="8"/>
       <c r="E148" s="8"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C149" s="8"/>
       <c r="E149" s="8"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C150" s="8"/>
       <c r="E150" s="8"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C151" s="8"/>
       <c r="E151" s="8"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C152" s="8"/>
       <c r="E152" s="8"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C153" s="8"/>
       <c r="E153" s="8"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C154" s="8"/>
       <c r="E154" s="8"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C155" s="8"/>
       <c r="E155" s="8"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C156" s="8"/>
       <c r="E156" s="8"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C157" s="8"/>
       <c r="E157" s="8"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C158" s="8"/>
       <c r="E158" s="8"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C159" s="8"/>
       <c r="E159" s="8"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C160" s="8"/>
       <c r="E160" s="8"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C161" s="8"/>
       <c r="E161" s="8"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C162" s="8"/>
       <c r="E162" s="8"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C163" s="8"/>
       <c r="E163" s="8"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C164" s="8"/>
       <c r="E164" s="8"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C165" s="8"/>
       <c r="E165" s="8"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C166" s="8"/>
       <c r="E166" s="8"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C167" s="8"/>
       <c r="E167" s="8"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C168" s="8"/>
       <c r="E168" s="8"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C169" s="8"/>
       <c r="E169" s="8"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C170" s="8"/>
       <c r="E170" s="8"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C171" s="8"/>
       <c r="E171" s="8"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C172" s="8"/>
       <c r="E172" s="8"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C173" s="8"/>
       <c r="E173" s="8"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C174" s="8"/>
       <c r="E174" s="8"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C175" s="8"/>
       <c r="E175" s="8"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C176" s="8"/>
       <c r="E176" s="8"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C177" s="8"/>
       <c r="E177" s="8"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C178" s="8"/>
       <c r="E178" s="8"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C179" s="8"/>
       <c r="E179" s="8"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C180" s="8"/>
       <c r="E180" s="8"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C181" s="8"/>
       <c r="E181" s="8"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C182" s="8"/>
       <c r="E182" s="8"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C183" s="8"/>
       <c r="E183" s="8"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C184" s="8"/>
       <c r="E184" s="8"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C185" s="8"/>
       <c r="E185" s="8"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C186" s="8"/>
       <c r="E186" s="8"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C187" s="8"/>
       <c r="E187" s="8"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C188" s="8"/>
       <c r="E188" s="8"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C189" s="8"/>
       <c r="E189" s="8"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C190" s="8"/>
       <c r="E190" s="8"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C191" s="8"/>
       <c r="E191" s="8"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C192" s="8"/>
       <c r="E192" s="8"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C193" s="8"/>
       <c r="E193" s="8"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C194" s="8"/>
       <c r="E194" s="8"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C195" s="8"/>
       <c r="E195" s="8"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C196" s="8"/>
       <c r="E196" s="8"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C197" s="8"/>
       <c r="E197" s="8"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C198" s="8"/>
       <c r="E198" s="8"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C199" s="8"/>
       <c r="E199" s="8"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C200" s="8"/>
       <c r="E200" s="8"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C201" s="8"/>
       <c r="E201" s="8"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C202" s="8"/>
       <c r="E202" s="8"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C203" s="8"/>
       <c r="E203" s="8"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C204" s="8"/>
       <c r="E204" s="8"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C205" s="8"/>
       <c r="E205" s="8"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C206" s="8"/>
       <c r="E206" s="8"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C207" s="8"/>
       <c r="E207" s="8"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C208" s="8"/>
       <c r="E208" s="8"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C209" s="8"/>
       <c r="E209" s="8"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C210" s="8"/>
       <c r="E210" s="8"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C211" s="8"/>
       <c r="E211" s="8"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C212" s="8"/>
       <c r="E212" s="8"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C213" s="8"/>
       <c r="E213" s="8"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C214" s="8"/>
       <c r="E214" s="8"/>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C215" s="8"/>
       <c r="E215" s="8"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C216" s="8"/>
       <c r="E216" s="8"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C217" s="8"/>
       <c r="E217" s="8"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C218" s="8"/>
       <c r="E218" s="8"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C219" s="8"/>
       <c r="E219" s="8"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C220" s="8"/>
       <c r="E220" s="8"/>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C221" s="8"/>
       <c r="E221" s="8"/>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C222" s="8"/>
       <c r="E222" s="8"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C223" s="8"/>
       <c r="E223" s="8"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C224" s="8"/>
       <c r="E224" s="8"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C225" s="8"/>
       <c r="E225" s="8"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C226" s="8"/>
       <c r="E226" s="8"/>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C227" s="8"/>
       <c r="E227" s="8"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C228" s="8"/>
       <c r="E228" s="8"/>
       <c r="G228" s="8"/>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C229" s="8"/>
       <c r="E229" s="8"/>
       <c r="G229" s="8"/>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C230" s="8"/>
       <c r="E230" s="8"/>
       <c r="G230" s="8"/>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C231" s="8"/>
       <c r="E231" s="8"/>
       <c r="G231" s="8"/>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C232" s="8"/>
       <c r="E232" s="8"/>
       <c r="G232" s="8"/>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C233" s="8"/>
       <c r="E233" s="8"/>
       <c r="G233" s="8"/>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C234" s="8"/>
       <c r="E234" s="8"/>
       <c r="G234" s="8"/>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C235" s="8"/>
       <c r="E235" s="8"/>
       <c r="G235" s="8"/>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C236" s="8"/>
       <c r="E236" s="8"/>
       <c r="G236" s="8"/>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C237" s="8"/>
       <c r="E237" s="8"/>
       <c r="G237" s="8"/>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C238" s="8"/>
       <c r="E238" s="8"/>
       <c r="G238" s="8"/>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C239" s="8"/>
       <c r="E239" s="8"/>
       <c r="G239" s="8"/>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C240" s="8"/>
       <c r="E240" s="8"/>
       <c r="G240" s="8"/>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C241" s="8"/>
       <c r="E241" s="8"/>
       <c r="G241" s="8"/>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C242" s="8"/>
       <c r="E242" s="8"/>
       <c r="G242" s="8"/>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C243" s="8"/>
       <c r="E243" s="8"/>
       <c r="G243" s="8"/>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C244" s="8"/>
       <c r="E244" s="8"/>
       <c r="G244" s="8"/>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C245" s="8"/>
       <c r="E245" s="8"/>
       <c r="G245" s="8"/>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C246" s="8"/>
       <c r="E246" s="8"/>
       <c r="G246" s="8"/>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C247" s="8"/>
       <c r="E247" s="8"/>
       <c r="G247" s="8"/>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C248" s="8"/>
       <c r="E248" s="8"/>
       <c r="G248" s="8"/>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C249" s="8"/>
       <c r="E249" s="8"/>
       <c r="G249" s="8"/>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C250" s="8"/>
       <c r="E250" s="8"/>
       <c r="G250" s="8"/>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C251" s="8"/>
       <c r="E251" s="8"/>
       <c r="G251" s="8"/>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C252" s="8"/>
       <c r="E252" s="8"/>
       <c r="G252" s="8"/>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C253" s="8"/>
       <c r="E253" s="8"/>
       <c r="G253" s="8"/>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C254" s="8"/>
       <c r="E254" s="8"/>
       <c r="G254" s="8"/>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C255" s="8"/>
       <c r="E255" s="8"/>
       <c r="G255" s="8"/>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C256" s="8"/>
       <c r="E256" s="8"/>
       <c r="G256" s="8"/>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C257" s="8"/>
       <c r="E257" s="8"/>
       <c r="G257" s="8"/>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C258" s="8"/>
       <c r="E258" s="8"/>
       <c r="G258" s="8"/>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C259" s="8"/>
       <c r="E259" s="8"/>
       <c r="G259" s="8"/>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C260" s="8"/>
       <c r="E260" s="8"/>
       <c r="G260" s="8"/>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C261" s="8"/>
       <c r="E261" s="8"/>
       <c r="G261" s="8"/>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C262" s="8"/>
       <c r="E262" s="8"/>
       <c r="G262" s="8"/>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C263" s="8"/>
       <c r="E263" s="8"/>
       <c r="G263" s="8"/>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C264" s="8"/>
       <c r="E264" s="8"/>
       <c r="G264" s="8"/>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C265" s="8"/>
       <c r="E265" s="8"/>
       <c r="G265" s="8"/>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C266" s="8"/>
       <c r="E266" s="8"/>
       <c r="G266" s="8"/>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C267" s="8"/>
       <c r="E267" s="8"/>
       <c r="G267" s="8"/>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C268" s="8"/>
       <c r="E268" s="8"/>
       <c r="G268" s="8"/>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C269" s="8"/>
       <c r="E269" s="8"/>
       <c r="G269" s="8"/>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C270" s="8"/>
       <c r="E270" s="8"/>
       <c r="G270" s="8"/>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C271" s="8"/>
       <c r="E271" s="8"/>
       <c r="G271" s="8"/>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C272" s="8"/>
       <c r="E272" s="8"/>
       <c r="G272" s="8"/>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C273" s="8"/>
       <c r="E273" s="8"/>
       <c r="G273" s="8"/>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C274" s="8"/>
       <c r="E274" s="8"/>
       <c r="G274" s="8"/>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C275" s="8"/>
       <c r="E275" s="8"/>
       <c r="G275" s="8"/>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C276" s="8"/>
       <c r="E276" s="8"/>
       <c r="G276" s="8"/>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C277" s="8"/>
       <c r="E277" s="8"/>
       <c r="G277" s="8"/>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C278" s="8"/>
       <c r="E278" s="8"/>
       <c r="G278" s="8"/>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C279" s="8"/>
       <c r="E279" s="8"/>
       <c r="G279" s="8"/>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C280" s="8"/>
       <c r="E280" s="8"/>
       <c r="G280" s="8"/>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C281" s="8"/>
       <c r="E281" s="8"/>
       <c r="G281" s="8"/>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C282" s="8"/>
       <c r="E282" s="8"/>
       <c r="G282" s="8"/>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C283" s="8"/>
       <c r="E283" s="8"/>
       <c r="G283" s="8"/>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C284" s="8"/>
       <c r="E284" s="8"/>
       <c r="G284" s="8"/>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C285" s="8"/>
       <c r="E285" s="8"/>
       <c r="G285" s="8"/>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C286" s="8"/>
       <c r="E286" s="8"/>
       <c r="G286" s="8"/>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C287" s="8"/>
       <c r="E287" s="8"/>
       <c r="G287" s="8"/>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C288" s="8"/>
       <c r="E288" s="8"/>
       <c r="G288" s="8"/>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C289" s="8"/>
       <c r="E289" s="8"/>
       <c r="G289" s="8"/>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C290" s="8"/>
       <c r="E290" s="8"/>
       <c r="G290" s="8"/>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C291" s="8"/>
       <c r="E291" s="8"/>
       <c r="G291" s="8"/>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C292" s="8"/>
       <c r="E292" s="8"/>
       <c r="G292" s="8"/>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C293" s="8"/>
       <c r="E293" s="8"/>
       <c r="G293" s="8"/>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C294" s="8"/>
       <c r="E294" s="8"/>
       <c r="G294" s="8"/>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C295" s="8"/>
       <c r="E295" s="8"/>
       <c r="G295" s="8"/>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C296" s="8"/>
       <c r="E296" s="8"/>
       <c r="G296" s="8"/>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C297" s="8"/>
       <c r="E297" s="8"/>
       <c r="G297" s="8"/>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C298" s="8"/>
       <c r="E298" s="8"/>
       <c r="G298" s="8"/>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C299" s="8"/>
       <c r="E299" s="8"/>
       <c r="G299" s="8"/>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C300" s="8"/>
       <c r="E300" s="8"/>
       <c r="G300" s="8"/>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C301" s="8"/>
       <c r="E301" s="8"/>
       <c r="G301" s="8"/>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C302" s="8"/>
       <c r="E302" s="8"/>
       <c r="G302" s="8"/>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C303" s="8"/>
       <c r="E303" s="8"/>
       <c r="G303" s="8"/>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C304" s="8"/>
       <c r="E304" s="8"/>
       <c r="G304" s="8"/>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C305" s="8"/>
       <c r="E305" s="8"/>
       <c r="G305" s="8"/>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C306" s="8"/>
       <c r="E306" s="8"/>
       <c r="G306" s="8"/>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C307" s="8"/>
       <c r="E307" s="8"/>
       <c r="G307" s="8"/>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C308" s="8"/>
       <c r="E308" s="8"/>
       <c r="G308" s="8"/>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C309" s="8"/>
       <c r="E309" s="8"/>
       <c r="G309" s="8"/>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C310" s="8"/>
       <c r="E310" s="8"/>
       <c r="G310" s="8"/>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C311" s="8"/>
       <c r="E311" s="8"/>
       <c r="G311" s="8"/>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C312" s="8"/>
       <c r="E312" s="8"/>
       <c r="G312" s="8"/>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C313" s="8"/>
       <c r="E313" s="8"/>
       <c r="G313" s="8"/>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C314" s="8"/>
       <c r="E314" s="8"/>
       <c r="G314" s="8"/>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C315" s="8"/>
       <c r="E315" s="8"/>
       <c r="G315" s="8"/>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C316" s="8"/>
       <c r="E316" s="8"/>
       <c r="G316" s="8"/>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C317" s="8"/>
       <c r="E317" s="8"/>
       <c r="G317" s="8"/>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C318" s="8"/>
       <c r="E318" s="8"/>
       <c r="G318" s="8"/>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C319" s="8"/>
       <c r="E319" s="8"/>
       <c r="G319" s="8"/>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C320" s="8"/>
       <c r="E320" s="8"/>
       <c r="G320" s="8"/>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C321" s="8"/>
       <c r="E321" s="8"/>
       <c r="G321" s="8"/>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C322" s="8"/>
       <c r="E322" s="8"/>
       <c r="G322" s="8"/>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C323" s="8"/>
       <c r="E323" s="8"/>
       <c r="G323" s="8"/>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C324" s="8"/>
       <c r="E324" s="8"/>
       <c r="G324" s="8"/>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C325" s="8"/>
       <c r="E325" s="8"/>
       <c r="G325" s="8"/>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C326" s="8"/>
       <c r="E326" s="8"/>
       <c r="G326" s="8"/>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C327" s="8"/>
       <c r="E327" s="8"/>
       <c r="G327" s="8"/>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C328" s="8"/>
       <c r="E328" s="8"/>
       <c r="G328" s="8"/>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C329" s="8"/>
       <c r="E329" s="8"/>
       <c r="G329" s="8"/>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C330" s="8"/>
       <c r="E330" s="8"/>
       <c r="G330" s="8"/>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C331" s="8"/>
       <c r="E331" s="8"/>
       <c r="G331" s="8"/>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C332" s="8"/>
       <c r="E332" s="8"/>
       <c r="G332" s="8"/>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C333" s="8"/>
       <c r="E333" s="8"/>
       <c r="G333" s="8"/>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C334" s="8"/>
       <c r="E334" s="8"/>
       <c r="G334" s="8"/>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C335" s="8"/>
       <c r="E335" s="8"/>
       <c r="G335" s="8"/>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C336" s="8"/>
       <c r="E336" s="8"/>
       <c r="G336" s="8"/>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C337" s="8"/>
       <c r="E337" s="8"/>
       <c r="G337" s="8"/>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C338" s="8"/>
       <c r="E338" s="8"/>
       <c r="G338" s="8"/>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C339" s="8"/>
       <c r="E339" s="8"/>
       <c r="G339" s="8"/>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C340" s="8"/>
       <c r="E340" s="8"/>
       <c r="G340" s="8"/>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C341" s="8"/>
       <c r="E341" s="8"/>
       <c r="G341" s="8"/>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C342" s="8"/>
       <c r="E342" s="8"/>
       <c r="G342" s="8"/>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C343" s="8"/>
       <c r="E343" s="8"/>
       <c r="G343" s="8"/>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C344" s="8"/>
       <c r="E344" s="8"/>
       <c r="G344" s="8"/>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C345" s="8"/>
       <c r="E345" s="8"/>
       <c r="G345" s="8"/>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C346" s="8"/>
       <c r="E346" s="8"/>
       <c r="G346" s="8"/>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C347" s="8"/>
       <c r="E347" s="8"/>
       <c r="G347" s="8"/>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C348" s="8"/>
       <c r="E348" s="8"/>
       <c r="G348" s="8"/>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C349" s="8"/>
       <c r="E349" s="8"/>
       <c r="G349" s="8"/>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C350" s="8"/>
       <c r="E350" s="8"/>
       <c r="G350" s="8"/>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C351" s="8"/>
       <c r="E351" s="8"/>
       <c r="G351" s="8"/>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C352" s="8"/>
       <c r="E352" s="8"/>
       <c r="G352" s="8"/>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C353" s="8"/>
       <c r="E353" s="8"/>
       <c r="G353" s="8"/>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C354" s="8"/>
       <c r="E354" s="8"/>
       <c r="G354" s="8"/>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C355" s="8"/>
       <c r="E355" s="8"/>
       <c r="G355" s="8"/>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C356" s="8"/>
       <c r="E356" s="8"/>
       <c r="G356" s="8"/>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C357" s="8"/>
       <c r="E357" s="8"/>
       <c r="G357" s="8"/>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C358" s="8"/>
       <c r="E358" s="8"/>
       <c r="G358" s="8"/>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C359" s="8"/>
       <c r="E359" s="8"/>
       <c r="G359" s="8"/>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C360" s="8"/>
       <c r="E360" s="8"/>
       <c r="G360" s="8"/>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C361" s="8"/>
       <c r="E361" s="8"/>
       <c r="G361" s="8"/>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C362" s="8"/>
       <c r="E362" s="8"/>
       <c r="G362" s="8"/>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C363" s="8"/>
       <c r="E363" s="8"/>
       <c r="G363" s="8"/>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C364" s="8"/>
       <c r="E364" s="8"/>
       <c r="G364" s="8"/>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C365" s="8"/>
       <c r="E365" s="8"/>
       <c r="G365" s="8"/>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C366" s="8"/>
       <c r="E366" s="8"/>
       <c r="G366" s="8"/>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C367" s="8"/>
       <c r="E367" s="8"/>
       <c r="G367" s="8"/>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C368" s="8"/>
       <c r="E368" s="8"/>
       <c r="G368" s="8"/>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C369" s="8"/>
       <c r="E369" s="8"/>
       <c r="G369" s="8"/>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C370" s="8"/>
       <c r="E370" s="8"/>
       <c r="G370" s="8"/>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C371" s="8"/>
       <c r="E371" s="8"/>
       <c r="G371" s="8"/>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C372" s="8"/>
       <c r="E372" s="8"/>
       <c r="G372" s="8"/>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C373" s="8"/>
       <c r="E373" s="8"/>
       <c r="G373" s="8"/>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C374" s="8"/>
       <c r="E374" s="8"/>
       <c r="G374" s="8"/>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C375" s="8"/>
       <c r="E375" s="8"/>
       <c r="G375" s="8"/>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C376" s="8"/>
       <c r="E376" s="8"/>
       <c r="G376" s="8"/>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C377" s="8"/>
       <c r="E377" s="8"/>
       <c r="G377" s="8"/>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C378" s="8"/>
       <c r="E378" s="8"/>
       <c r="G378" s="8"/>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C379" s="8"/>
       <c r="E379" s="8"/>
       <c r="G379" s="8"/>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C380" s="8"/>
       <c r="E380" s="8"/>
       <c r="G380" s="8"/>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C381" s="8"/>
       <c r="E381" s="8"/>
       <c r="G381" s="8"/>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C382" s="8"/>
       <c r="E382" s="8"/>
       <c r="G382" s="8"/>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C383" s="8"/>
       <c r="E383" s="8"/>
       <c r="G383" s="8"/>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C384" s="8"/>
       <c r="E384" s="8"/>
       <c r="G384" s="8"/>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C385" s="8"/>
       <c r="E385" s="8"/>
       <c r="G385" s="8"/>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C386" s="8"/>
       <c r="E386" s="8"/>
       <c r="G386" s="8"/>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C387" s="8"/>
       <c r="E387" s="8"/>
       <c r="G387" s="8"/>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C388" s="8"/>
       <c r="E388" s="8"/>
       <c r="G388" s="8"/>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C389" s="8"/>
       <c r="E389" s="8"/>
       <c r="G389" s="8"/>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C390" s="8"/>
       <c r="E390" s="8"/>
       <c r="G390" s="8"/>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C391" s="8"/>
       <c r="E391" s="8"/>
       <c r="G391" s="8"/>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C392" s="8"/>
       <c r="E392" s="8"/>
       <c r="G392" s="8"/>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C393" s="8"/>
       <c r="E393" s="8"/>
       <c r="G393" s="8"/>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C394" s="8"/>
       <c r="E394" s="8"/>
       <c r="G394" s="8"/>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C395" s="8"/>
       <c r="E395" s="8"/>
       <c r="G395" s="8"/>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C396" s="8"/>
       <c r="E396" s="8"/>
       <c r="G396" s="8"/>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C397" s="8"/>
       <c r="E397" s="8"/>
       <c r="G397" s="8"/>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C398" s="8"/>
       <c r="E398" s="8"/>
       <c r="G398" s="8"/>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C399" s="8"/>
       <c r="E399" s="8"/>
       <c r="G399" s="8"/>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C400" s="8"/>
       <c r="E400" s="8"/>
       <c r="G400" s="8"/>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C401" s="8"/>
       <c r="E401" s="8"/>
       <c r="G401" s="8"/>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C402" s="8"/>
       <c r="E402" s="8"/>
       <c r="G402" s="8"/>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C403" s="8"/>
       <c r="E403" s="8"/>
       <c r="G403" s="8"/>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C404" s="8"/>
       <c r="E404" s="8"/>
       <c r="G404" s="8"/>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C405" s="8"/>
       <c r="E405" s="8"/>
       <c r="G405" s="8"/>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C406" s="8"/>
       <c r="E406" s="8"/>
       <c r="G406" s="8"/>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C407" s="8"/>
       <c r="E407" s="8"/>
       <c r="G407" s="8"/>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C408" s="8"/>
       <c r="E408" s="8"/>
       <c r="G408" s="8"/>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C409" s="8"/>
       <c r="E409" s="8"/>
       <c r="G409" s="8"/>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C410" s="8"/>
       <c r="E410" s="8"/>
       <c r="G410" s="8"/>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C411" s="8"/>
       <c r="E411" s="8"/>
       <c r="G411" s="8"/>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C412" s="8"/>
       <c r="E412" s="8"/>
       <c r="G412" s="8"/>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C413" s="8"/>
       <c r="E413" s="8"/>
       <c r="G413" s="8"/>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C414" s="8"/>
       <c r="E414" s="8"/>
       <c r="G414" s="8"/>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C415" s="8"/>
       <c r="E415" s="8"/>
       <c r="G415" s="8"/>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C416" s="8"/>
       <c r="E416" s="8"/>
       <c r="G416" s="8"/>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C417" s="8"/>
       <c r="E417" s="8"/>
       <c r="G417" s="8"/>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C418" s="8"/>
       <c r="E418" s="8"/>
       <c r="G418" s="8"/>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C419" s="8"/>
       <c r="E419" s="8"/>
       <c r="G419" s="8"/>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C420" s="8"/>
       <c r="E420" s="8"/>
       <c r="G420" s="8"/>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C421" s="8"/>
       <c r="E421" s="8"/>
       <c r="G421" s="8"/>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C422" s="8"/>
       <c r="E422" s="8"/>
       <c r="G422" s="8"/>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C423" s="8"/>
       <c r="E423" s="8"/>
       <c r="G423" s="8"/>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C424" s="8"/>
       <c r="E424" s="8"/>
       <c r="G424" s="8"/>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C425" s="8"/>
       <c r="E425" s="8"/>
       <c r="G425" s="8"/>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C426" s="8"/>
       <c r="E426" s="8"/>
       <c r="G426" s="8"/>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C427" s="8"/>
       <c r="E427" s="8"/>
       <c r="G427" s="8"/>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C428" s="8"/>
       <c r="E428" s="8"/>
       <c r="G428" s="8"/>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C429" s="8"/>
       <c r="E429" s="8"/>
       <c r="G429" s="8"/>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C430" s="8"/>
       <c r="E430" s="8"/>
       <c r="G430" s="8"/>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C431" s="8"/>
       <c r="E431" s="8"/>
       <c r="G431" s="8"/>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C432" s="8"/>
       <c r="E432" s="8"/>
       <c r="G432" s="8"/>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C433" s="8"/>
       <c r="E433" s="8"/>
       <c r="G433" s="8"/>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C434" s="8"/>
       <c r="E434" s="8"/>
       <c r="G434" s="8"/>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C435" s="8"/>
       <c r="E435" s="8"/>
       <c r="G435" s="8"/>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C436" s="8"/>
       <c r="E436" s="8"/>
       <c r="G436" s="8"/>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C437" s="8"/>
       <c r="E437" s="8"/>
       <c r="G437" s="8"/>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C438" s="8"/>
       <c r="E438" s="8"/>
       <c r="G438" s="8"/>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C439" s="8"/>
       <c r="E439" s="8"/>
       <c r="G439" s="8"/>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C440" s="8"/>
       <c r="E440" s="8"/>
       <c r="G440" s="8"/>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C441" s="8"/>
       <c r="E441" s="8"/>
       <c r="G441" s="8"/>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C442" s="8"/>
       <c r="E442" s="8"/>
       <c r="G442" s="8"/>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C443" s="8"/>
       <c r="E443" s="8"/>
       <c r="G443" s="8"/>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C444" s="8"/>
       <c r="E444" s="8"/>
       <c r="G444" s="8"/>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C445" s="8"/>
       <c r="E445" s="8"/>
       <c r="G445" s="8"/>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C446" s="8"/>
       <c r="E446" s="8"/>
       <c r="G446" s="8"/>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C447" s="8"/>
       <c r="E447" s="8"/>
       <c r="G447" s="8"/>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C448" s="8"/>
       <c r="E448" s="8"/>
       <c r="G448" s="8"/>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C449" s="8"/>
       <c r="E449" s="8"/>
       <c r="G449" s="8"/>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C450" s="8"/>
       <c r="E450" s="8"/>
       <c r="G450" s="8"/>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C451" s="8"/>
       <c r="E451" s="8"/>
       <c r="G451" s="8"/>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C452" s="8"/>
       <c r="E452" s="8"/>
       <c r="G452" s="8"/>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C453" s="8"/>
       <c r="E453" s="8"/>
       <c r="G453" s="8"/>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C454" s="8"/>
       <c r="E454" s="8"/>
       <c r="G454" s="8"/>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C455" s="8"/>
       <c r="E455" s="8"/>
       <c r="G455" s="8"/>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C456" s="8"/>
       <c r="E456" s="8"/>
       <c r="G456" s="8"/>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C457" s="8"/>
       <c r="E457" s="8"/>
       <c r="G457" s="8"/>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C458" s="8"/>
       <c r="E458" s="8"/>
       <c r="G458" s="8"/>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C459" s="8"/>
       <c r="E459" s="8"/>
       <c r="G459" s="8"/>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C460" s="8"/>
       <c r="E460" s="8"/>
       <c r="G460" s="8"/>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C461" s="8"/>
       <c r="E461" s="8"/>
       <c r="G461" s="8"/>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C462" s="8"/>
       <c r="E462" s="8"/>
       <c r="G462" s="8"/>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C463" s="8"/>
       <c r="E463" s="8"/>
       <c r="G463" s="8"/>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C464" s="8"/>
       <c r="E464" s="8"/>
       <c r="G464" s="8"/>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C465" s="8"/>
       <c r="E465" s="8"/>
       <c r="G465" s="8"/>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C466" s="8"/>
       <c r="E466" s="8"/>
       <c r="G466" s="8"/>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C467" s="8"/>
       <c r="E467" s="8"/>
       <c r="G467" s="8"/>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C468" s="8"/>
       <c r="E468" s="8"/>
       <c r="G468" s="8"/>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C469" s="8"/>
       <c r="E469" s="8"/>
       <c r="G469" s="8"/>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C470" s="8"/>
       <c r="E470" s="8"/>
       <c r="G470" s="8"/>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C471" s="8"/>
       <c r="E471" s="8"/>
       <c r="G471" s="8"/>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C472" s="8"/>
       <c r="E472" s="8"/>
       <c r="G472" s="8"/>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C473" s="8"/>
       <c r="E473" s="8"/>
       <c r="G473" s="8"/>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C474" s="8"/>
       <c r="E474" s="8"/>
       <c r="G474" s="8"/>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C475" s="8"/>
       <c r="E475" s="8"/>
       <c r="G475" s="8"/>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C476" s="8"/>
       <c r="E476" s="8"/>
       <c r="G476" s="8"/>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C477" s="8"/>
       <c r="E477" s="8"/>
       <c r="G477" s="8"/>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C478" s="8"/>
       <c r="E478" s="8"/>
       <c r="G478" s="8"/>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C479" s="8"/>
       <c r="E479" s="8"/>
       <c r="G479" s="8"/>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C480" s="8"/>
       <c r="E480" s="8"/>
       <c r="G480" s="8"/>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C481" s="8"/>
       <c r="E481" s="8"/>
       <c r="G481" s="8"/>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C482" s="8"/>
       <c r="E482" s="8"/>
       <c r="G482" s="8"/>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C483" s="8"/>
       <c r="E483" s="8"/>
       <c r="G483" s="8"/>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C484" s="8"/>
       <c r="E484" s="8"/>
       <c r="G484" s="8"/>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C485" s="8"/>
       <c r="E485" s="8"/>
       <c r="G485" s="8"/>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C486" s="8"/>
       <c r="E486" s="8"/>
       <c r="G486" s="8"/>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C487" s="8"/>
       <c r="E487" s="8"/>
       <c r="G487" s="8"/>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C488" s="8"/>
       <c r="E488" s="8"/>
       <c r="G488" s="8"/>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C489" s="8"/>
       <c r="E489" s="8"/>
       <c r="G489" s="8"/>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C490" s="8"/>
       <c r="E490" s="8"/>
       <c r="G490" s="8"/>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C491" s="8"/>
       <c r="E491" s="8"/>
       <c r="G491" s="8"/>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C492" s="8"/>
       <c r="E492" s="8"/>
       <c r="G492" s="8"/>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C493" s="8"/>
       <c r="E493" s="8"/>
       <c r="G493" s="8"/>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C494" s="8"/>
       <c r="E494" s="8"/>
       <c r="G494" s="8"/>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C495" s="8"/>
       <c r="E495" s="8"/>
       <c r="G495" s="8"/>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C496" s="8"/>
       <c r="E496" s="8"/>
       <c r="G496" s="8"/>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C497" s="8"/>
       <c r="E497" s="8"/>
       <c r="G497" s="8"/>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C498" s="8"/>
       <c r="E498" s="8"/>
       <c r="G498" s="8"/>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C499" s="8"/>
       <c r="E499" s="8"/>
       <c r="G499" s="8"/>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C500" s="8"/>
       <c r="E500" s="8"/>
       <c r="G500" s="8"/>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C501" s="8"/>
       <c r="E501" s="8"/>
       <c r="G501" s="8"/>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C502" s="8"/>
       <c r="E502" s="8"/>
       <c r="G502" s="8"/>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C503" s="8"/>
       <c r="E503" s="8"/>
       <c r="G503" s="8"/>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C504" s="8"/>
       <c r="E504" s="8"/>
       <c r="G504" s="8"/>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C505" s="8"/>
       <c r="E505" s="8"/>
       <c r="G505" s="8"/>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C506" s="8"/>
       <c r="E506" s="8"/>
       <c r="G506" s="8"/>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C507" s="8"/>
       <c r="E507" s="8"/>
       <c r="G507" s="8"/>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C508" s="8"/>
       <c r="E508" s="8"/>
       <c r="G508" s="8"/>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C509" s="8"/>
       <c r="E509" s="8"/>
       <c r="G509" s="8"/>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C510" s="8"/>
       <c r="E510" s="8"/>
       <c r="G510" s="8"/>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C511" s="8"/>
       <c r="E511" s="8"/>
       <c r="G511" s="8"/>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C512" s="8"/>
       <c r="E512" s="8"/>
       <c r="G512" s="8"/>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C513" s="8"/>
       <c r="E513" s="8"/>
       <c r="G513" s="8"/>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C514" s="8"/>
       <c r="E514" s="8"/>
       <c r="G514" s="8"/>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C515" s="8"/>
       <c r="E515" s="8"/>
       <c r="G515" s="8"/>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C516" s="8"/>
       <c r="E516" s="8"/>
       <c r="G516" s="8"/>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C517" s="8"/>
       <c r="E517" s="8"/>
       <c r="G517" s="8"/>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C518" s="8"/>
       <c r="E518" s="8"/>
       <c r="G518" s="8"/>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C519" s="8"/>
       <c r="E519" s="8"/>
       <c r="G519" s="8"/>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C520" s="8"/>
       <c r="E520" s="8"/>
       <c r="G520" s="8"/>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C521" s="8"/>
       <c r="E521" s="8"/>
       <c r="G521" s="8"/>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C522" s="8"/>
       <c r="E522" s="8"/>
       <c r="G522" s="8"/>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C523" s="8"/>
       <c r="E523" s="8"/>
       <c r="G523" s="8"/>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C524" s="8"/>
       <c r="E524" s="8"/>
       <c r="G524" s="8"/>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C525" s="8"/>
       <c r="E525" s="8"/>
       <c r="G525" s="8"/>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C526" s="8"/>
       <c r="E526" s="8"/>
       <c r="G526" s="8"/>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C527" s="8"/>
       <c r="E527" s="8"/>
       <c r="G527" s="8"/>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C528" s="8"/>
       <c r="E528" s="8"/>
       <c r="G528" s="8"/>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C529" s="8"/>
       <c r="E529" s="8"/>
       <c r="G529" s="8"/>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C530" s="8"/>
       <c r="E530" s="8"/>
       <c r="G530" s="8"/>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C531" s="8"/>
       <c r="E531" s="8"/>
       <c r="G531" s="8"/>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C532" s="8"/>
       <c r="E532" s="8"/>
       <c r="G532" s="8"/>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C533" s="8"/>
       <c r="E533" s="8"/>
       <c r="G533" s="8"/>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C534" s="8"/>
       <c r="E534" s="8"/>
       <c r="G534" s="8"/>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C535" s="8"/>
       <c r="E535" s="8"/>
       <c r="G535" s="8"/>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C536" s="8"/>
       <c r="E536" s="8"/>
       <c r="G536" s="8"/>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C537" s="8"/>
       <c r="E537" s="8"/>
       <c r="G537" s="8"/>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C538" s="8"/>
       <c r="E538" s="8"/>
       <c r="G538" s="8"/>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C539" s="8"/>
       <c r="E539" s="8"/>
       <c r="G539" s="8"/>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C540" s="8"/>
       <c r="E540" s="8"/>
       <c r="G540" s="8"/>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C541" s="8"/>
       <c r="E541" s="8"/>
       <c r="G541" s="8"/>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C542" s="8"/>
       <c r="E542" s="8"/>
       <c r="G542" s="8"/>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C543" s="8"/>
       <c r="E543" s="8"/>
       <c r="G543" s="8"/>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C544" s="8"/>
       <c r="E544" s="8"/>
       <c r="G544" s="8"/>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C545" s="8"/>
       <c r="E545" s="8"/>
       <c r="G545" s="8"/>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C546" s="8"/>
       <c r="E546" s="8"/>
       <c r="G546" s="8"/>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C547" s="8"/>
       <c r="E547" s="8"/>
       <c r="G547" s="8"/>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C548" s="8"/>
       <c r="E548" s="8"/>
       <c r="G548" s="8"/>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C549" s="8"/>
       <c r="E549" s="8"/>
       <c r="G549" s="8"/>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C550" s="8"/>
       <c r="E550" s="8"/>
       <c r="G550" s="8"/>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C551" s="8"/>
       <c r="E551" s="8"/>
       <c r="G551" s="8"/>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C552" s="8"/>
       <c r="E552" s="8"/>
       <c r="G552" s="8"/>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C553" s="8"/>
       <c r="E553" s="8"/>
       <c r="G553" s="8"/>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C554" s="8"/>
       <c r="E554" s="8"/>
       <c r="G554" s="8"/>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C555" s="8"/>
       <c r="E555" s="8"/>
       <c r="G555" s="8"/>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C556" s="8"/>
       <c r="E556" s="8"/>
       <c r="G556" s="8"/>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C557" s="8"/>
       <c r="E557" s="8"/>
       <c r="G557" s="8"/>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C558" s="8"/>
       <c r="E558" s="8"/>
       <c r="G558" s="8"/>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C559" s="8"/>
       <c r="E559" s="8"/>
       <c r="G559" s="8"/>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C560" s="8"/>
       <c r="E560" s="8"/>
       <c r="G560" s="8"/>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C561" s="8"/>
       <c r="E561" s="8"/>
       <c r="G561" s="8"/>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C562" s="8"/>
       <c r="E562" s="8"/>
       <c r="G562" s="8"/>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C563" s="8"/>
       <c r="E563" s="8"/>
       <c r="G563" s="8"/>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C564" s="8"/>
       <c r="E564" s="8"/>
       <c r="G564" s="8"/>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C565" s="8"/>
       <c r="E565" s="8"/>
       <c r="G565" s="8"/>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C566" s="8"/>
       <c r="E566" s="8"/>
       <c r="G566" s="8"/>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C567" s="8"/>
       <c r="E567" s="8"/>
       <c r="G567" s="8"/>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C568" s="8"/>
       <c r="E568" s="8"/>
       <c r="G568" s="8"/>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C569" s="8"/>
       <c r="E569" s="8"/>
       <c r="G569" s="8"/>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C570" s="8"/>
       <c r="E570" s="8"/>
       <c r="G570" s="8"/>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C571" s="8"/>
       <c r="E571" s="8"/>
       <c r="G571" s="8"/>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C572" s="8"/>
       <c r="E572" s="8"/>
       <c r="G572" s="8"/>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C573" s="8"/>
       <c r="E573" s="8"/>
       <c r="G573" s="8"/>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C574" s="8"/>
       <c r="E574" s="8"/>
       <c r="G574" s="8"/>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C575" s="8"/>
       <c r="E575" s="8"/>
       <c r="G575" s="8"/>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C576" s="8"/>
       <c r="E576" s="8"/>
       <c r="G576" s="8"/>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C577" s="8"/>
       <c r="E577" s="8"/>
       <c r="G577" s="8"/>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C578" s="8"/>
       <c r="E578" s="8"/>
       <c r="G578" s="8"/>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C579" s="8"/>
       <c r="E579" s="8"/>
       <c r="G579" s="8"/>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C580" s="8"/>
       <c r="E580" s="8"/>
       <c r="G580" s="8"/>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C581" s="8"/>
       <c r="E581" s="8"/>
       <c r="G581" s="8"/>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C582" s="8"/>
       <c r="E582" s="8"/>
       <c r="G582" s="8"/>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C583" s="8"/>
       <c r="E583" s="8"/>
       <c r="G583" s="8"/>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C584" s="8"/>
       <c r="E584" s="8"/>
       <c r="G584" s="8"/>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C585" s="8"/>
       <c r="E585" s="8"/>
       <c r="G585" s="8"/>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C586" s="8"/>
       <c r="E586" s="8"/>
       <c r="G586" s="8"/>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C587" s="8"/>
       <c r="E587" s="8"/>
       <c r="G587" s="8"/>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C588" s="8"/>
       <c r="E588" s="8"/>
       <c r="G588" s="8"/>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C589" s="8"/>
       <c r="E589" s="8"/>
       <c r="G589" s="8"/>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C590" s="8"/>
       <c r="E590" s="8"/>
       <c r="G590" s="8"/>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C591" s="8"/>
       <c r="E591" s="8"/>
       <c r="G591" s="8"/>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C592" s="8"/>
       <c r="E592" s="8"/>
       <c r="G592" s="8"/>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C593" s="8"/>
       <c r="E593" s="8"/>
       <c r="G593" s="8"/>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C594" s="8"/>
       <c r="E594" s="8"/>
       <c r="G594" s="8"/>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C595" s="8"/>
       <c r="E595" s="8"/>
       <c r="G595" s="8"/>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C596" s="8"/>
       <c r="E596" s="8"/>
       <c r="G596" s="8"/>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C597" s="8"/>
       <c r="E597" s="8"/>
       <c r="G597" s="8"/>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C598" s="8"/>
       <c r="E598" s="8"/>
       <c r="G598" s="8"/>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C599" s="8"/>
       <c r="E599" s="8"/>
       <c r="G599" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C599 E2:E599 G2:G599">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D599">
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F599">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H599">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND(ISBLANK(H2),G2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(ISBLANK(H2),G2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E599 C2:C599 G2:G599">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E599 C2:C599 G2:G599" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\IdeaProjects\team-project-2181-swen-261-07-c-null\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACF23EC-EA15-4D49-BDDF-EF00B5DE92A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Test Plan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,301 +26,287 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
-  <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your team name as specified in the cell below. When doing cross-team and Freshman Seminar acceptance testing, enter the name for the testing group.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Enter your team name as specified in the cell below. When doing cross-team and Freshman Seminar acceptance testing, enter the name for the testing group.
 Fill-in the Test Plan worksheet with all the remaining User Stories in your Product Backlog. As your user stories are refined, add the acceptance criteria for each user story. Use a separate worksheet to provide any specific test case data that the tester needs to use.
 As tests are performed in each sprint, indicate Pass/Fail. The tester should add initials and a date in the comments column. If the test failed, the tester is required to add additional information about the failure. The status cell will color code based on the test results. The comments cell will color code when a test result exists but no information is entered.
 Save this test plan with a name formatted as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers.xslx.
 Submit this file per the instructions specified for the sprint submissions, cross-team testing, and Freshman Seminar testing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Team Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team-project-2181-swen-261-07-c-null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Team Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story Name:</t>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>team-project-2181-swen-261-07-c-null</t>
+  </si>
+  <si>
+    <t>Testing Team Name</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>User Story Name:</t>
   </si>
   <si>
     <t xml:space="preserve">User Story Description: (highlight green for pass, red for fail) </t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Player I want to start a game so that I can play checkers with an opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Sign-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Player I want to sign-in so that I can play a game of checkers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criterion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester initials; date; comments (required if test failed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG;Oct 15 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD;Nov 5 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that no one else is using my name when I enter my name in the sign-in form and click the Sign-in button then I expect system to reserve my name and navigate back to the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that no one else is using my name when I enter a name with a double quote (`"`) then I expect the system to reject this name and return the sign-in form.  (Note: double quote is not a valid character in a Player's name.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form.  I can then choose a different user name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have signed in when I see the Home page then I must see a means to sign-out. (such as a link or button)  Thus the sign-in and sign-out links need to alternate and never been seen together or not at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed-in when I click on the sign-out link then I expect the system to sign me out, release my name for use by other users, and then return me to the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG;Oct 15 18; The Sprint I version did not have sign out feature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed-in when I navigate to the Home page then I expect to see a list of all other signed-in players.  (NOTE: in the next story you will use this list to pick opponents for checkers games.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am not signed-in when I navigate to the Home page then I expect to see a message of how many players are signed-in but not a list of them (for privacy reasons).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to a white space then the piece should not be droppable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Start a Game</t>
+  </si>
+  <si>
+    <t>As a Player I want to start a game so that I can play checkers with an opponent.</t>
+  </si>
+  <si>
+    <t>Player Sign-in</t>
+  </si>
+  <si>
+    <t>As a Player I want to sign-in so that I can play a game of checkers.</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criterion</t>
+  </si>
+  <si>
+    <t>Tester initials; date; comments (required if test failed)</t>
+  </si>
+  <si>
+    <t>Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>MG;Oct 15 18</t>
+  </si>
+  <si>
+    <t>PD;Nov 5 18</t>
+  </si>
+  <si>
+    <t>Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
+  </si>
+  <si>
+    <t>Given that no one else is using my name when I enter my name in the sign-in form and click the Sign-in button then I expect system to reserve my name and navigate back to the Home page.</t>
+  </si>
+  <si>
+    <t>Given that no one else is using my name when I enter a name with a double quote (`"`) then I expect the system to reject this name and return the sign-in form.  (Note: double quote is not a valid character in a Player's name.)</t>
+  </si>
+  <si>
+    <t>Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form.  I can then choose a different user name.</t>
+  </si>
+  <si>
+    <t>Given that I have signed in when I see the Home page then I must see a means to sign-out. (such as a link or button)  Thus the sign-in and sign-out links need to alternate and never been seen together or not at all.</t>
+  </si>
+  <si>
+    <t>Given that I am signed-in when I click on the sign-out link then I expect the system to sign me out, release my name for use by other users, and then return me to the Home page.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>MG;Oct 15 18; The Sprint I version did not have sign out feature.</t>
+  </si>
+  <si>
+    <t>Given that I am signed-in when I navigate to the Home page then I expect to see a list of all other signed-in players.  (NOTE: in the next story you will use this list to pick opponents for checkers games.)</t>
+  </si>
+  <si>
+    <t>Given that I am not signed-in when I navigate to the Home page then I expect to see a message of how many players are signed-in but not a list of them (for privacy reasons).</t>
+  </si>
+  <si>
+    <t>Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
+  </si>
+  <si>
+    <t>Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
+  </si>
+  <si>
+    <t>Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
+  </si>
+  <si>
+    <t>Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to a white space then the piece should not be droppable.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
   </si>
   <si>
     <t xml:space="preserve">As a player I want to have the ability to sign-out so nobody can impose as me on the computer. </t>
   </si>
   <si>
-    <t xml:space="preserve">Given that I have signed in when I see the Home page then I must see a means to sign-out. (such as a link or button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR;Nov 5 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed-in when I do click on the sign-out link then I expect to be taken to the Home page, now being signed out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to be able to make a single move when there is an available move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that it is my turn when I make a move then I expect to have valid moves directly in front of my piece to either side.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that there is a jump move available when I make a move I expect to be forced to make that jump move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I move my piece when I jump the opponents piece then I expect my piece to move and the opponent to loose their checkers piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I only have a normal piece when I make a move I expect to not be able to move backwards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to be able to make a double move so I can win the game faster by claiming two pieces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given SOME when I have a double jump move available when make the checkers move then I expect my piece to move and the opponent to loose more than 1 piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have staged a double jump move, when I backup my move then I expect only my last move to be reverted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in the middle of a jump move and have another jump available then I expect to be forced to make it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to be able move my king piece in either direction and choose when to take a jump, to help me with the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have a valid checkers piece when I reach the other side of the board then I expect to get a king piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have a king piece when I move my piece I expect to be able to move in both directions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a new player I want to view helpful hints so that I can get better at the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** I'm in the middle of a game **when** I click the help button **then** I recommend tile to flash.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD; Nov 15 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** that I click help **when** help is displayed **then** I expect the help to be for valid moves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** I click help **when** help is displayed **then** I expect a jump move to be displayed if there is one available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want the ability to play against the computer so that I don’t have to wait on the other user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** that I am on the player lobby page **when** I click play with AI **then** I expect to be sent  to a game with an AI player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** I am in a game with an AI player **when** I it is the AI player's turn **then** I expect the AI player to make a logical move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to be able to forfeit the game to save my time in a losing situation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** I am playing against my opponent **when** I see an inevitable loss, **then** I should see a button to forfeit the game.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** I press the forfeit button **when** I have decided to forfeit, **then** my opponent should grab the W and I should lose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Given** I have forfeited **when** I have pressed the forfeit button, **then** I should be taken back to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a player I want to lose the game if I have zero pieces to comply with rules and save the other player time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am playing against my opponent when I lost I should see the game end, taking me back to the home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am playing against my opponent when I win I should see the game end, taking me back to the home page</t>
+    <t>Given that I have signed in when I see the Home page then I must see a means to sign-out. (such as a link or button)</t>
+  </si>
+  <si>
+    <t>JR;Nov 5 18</t>
+  </si>
+  <si>
+    <t>Given that I am signed-in when I do click on the sign-out link then I expect to be taken to the Home page, now being signed out.</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to make a single move when there is an available move.</t>
+  </si>
+  <si>
+    <t>Given that it is my turn when I make a move then I expect to have valid moves directly in front of my piece to either side.</t>
+  </si>
+  <si>
+    <t>Given that there is a jump move available when I make a move I expect to be forced to make that jump move.</t>
+  </si>
+  <si>
+    <t>Given that I move my piece when I jump the opponents piece then I expect my piece to move and the opponent to loose their checkers piece.</t>
+  </si>
+  <si>
+    <t>Given that I only have a normal piece when I make a move I expect to not be able to move backwards.</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to make a double move so I can win the game faster by claiming two pieces.</t>
+  </si>
+  <si>
+    <t>Given SOME when I have a double jump move available when make the checkers move then I expect my piece to move and the opponent to loose more than 1 piece.</t>
+  </si>
+  <si>
+    <t>Given that I have staged a double jump move, when I backup my move then I expect only my last move to be reverted.</t>
+  </si>
+  <si>
+    <t>Given that I am in the middle of a jump move and have another jump available then I expect to be forced to make it.</t>
+  </si>
+  <si>
+    <t>As a player I want to be able move my king piece in either direction and choose when to take a jump, to help me with the game.</t>
+  </si>
+  <si>
+    <t>Given that I have a valid checkers piece when I reach the other side of the board then I expect to get a king piece.</t>
+  </si>
+  <si>
+    <t>Given that I have a king piece when I move my piece I expect to be able to move in both directions.</t>
+  </si>
+  <si>
+    <t>As a new player I want to view helpful hints so that I can get better at the game.</t>
+  </si>
+  <si>
+    <t>**Given** I'm in the middle of a game **when** I click the help button **then** I recommend tile to flash.</t>
+  </si>
+  <si>
+    <t>PD; Nov 15 18</t>
+  </si>
+  <si>
+    <t>**Given** that I click help **when** help is displayed **then** I expect the help to be for valid moves.</t>
+  </si>
+  <si>
+    <t>**Given** I click help **when** help is displayed **then** I expect a jump move to be displayed if there is one available.</t>
+  </si>
+  <si>
+    <t>As a player I want the ability to play against the computer so that I don’t have to wait on the other user.</t>
+  </si>
+  <si>
+    <t>**Given** that I am on the player lobby page **when** I click play with AI **then** I expect to be sent  to a game with an AI player.</t>
+  </si>
+  <si>
+    <t>**Given** I am in a game with an AI player **when** I it is the AI player's turn **then** I expect the AI player to make a logical move.</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to forfeit the game to save my time in a losing situation.</t>
+  </si>
+  <si>
+    <t>**Given** I am playing against my opponent **when** I see an inevitable loss, **then** I should see a button to forfeit the game.*</t>
+  </si>
+  <si>
+    <t>**Given** I press the forfeit button **when** I have decided to forfeit, **then** my opponent should grab the W and I should lose.</t>
+  </si>
+  <si>
+    <t>**Given** I have forfeited **when** I have pressed the forfeit button, **then** I should be taken back to the home page.</t>
+  </si>
+  <si>
+    <t>As a player I want to lose the game if I have zero pieces to comply with rules and save the other player time.</t>
+  </si>
+  <si>
+    <t>Given I am playing against my opponent when I lost I should see the game end, taking me back to the home page</t>
+  </si>
+  <si>
+    <t>Given I am playing against my opponent when I win I should see the game end, taking me back to the home page</t>
+  </si>
+  <si>
+    <t>SC; Nov 25 18</t>
+  </si>
+  <si>
+    <t>**Given** I try to log in with non alpha numeric values **when** I click log in **then** I EXPECT the username to be rejected.</t>
+  </si>
+  <si>
+    <t>As a player I want to play a bug free game so that I can not get confused while playing.</t>
+  </si>
+  <si>
+    <t>Given that I selected an invalid user to play a game with when I get displayed the error message, I expect to be taken to the home page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="14"/>
       <color rgb="FF17394D"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -340,165 +331,97 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -516,7 +439,49 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -575,31 +540,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F33"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.21"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="106.75" customWidth="1"/>
+    <col min="3" max="26" width="11" customWidth="1"/>
+    <col min="27" max="1025" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,29 +880,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -649,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -664,7 +937,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -679,1037 +952,1029 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C20" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="topRight" activeCell="F33" activeCellId="0" sqref="A1:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A20" sqref="A20"/>
+      <selection pane="topRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="11.21"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="60" customWidth="1"/>
+    <col min="9" max="26" width="10.75" customWidth="1"/>
+    <col min="27" max="1025" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1753,7 +2018,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -1793,7 +2058,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1831,7 +2096,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -1869,7 +2134,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -1907,7 +2172,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
@@ -1945,7 +2210,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -1983,7 +2248,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>28</v>
@@ -2021,7 +2286,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>31</v>
@@ -2059,7 +2324,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>32</v>
@@ -2097,7 +2362,7 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2402,7 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -2175,7 +2440,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -2213,7 +2478,7 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -2251,7 +2516,7 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>37</v>
@@ -2289,7 +2554,7 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>38</v>
@@ -2327,7 +2592,7 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
@@ -2365,7 +2630,7 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -2403,7 +2668,7 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>41</v>
       </c>
@@ -2439,7 +2704,7 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>44</v>
@@ -2473,7 +2738,7 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -2509,7 +2774,7 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -2543,7 +2808,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -2577,7 +2842,7 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -2611,7 +2876,7 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -2647,7 +2912,7 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
@@ -2681,7 +2946,7 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>53</v>
@@ -2715,7 +2980,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +3016,7 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>56</v>
@@ -2785,7 +3050,7 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -2821,7 +3086,7 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>60</v>
@@ -2855,7 +3120,7 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>61</v>
@@ -2889,7 +3154,7 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -2900,8 +3165,12 @@
       <c r="D33" s="2"/>
       <c r="E33" s="13"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -2921,7 +3190,7 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>64</v>
@@ -2930,8 +3199,12 @@
       <c r="D34" s="2"/>
       <c r="E34" s="13"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -2951,7 +3224,7 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -2962,8 +3235,12 @@
       <c r="D35" s="2"/>
       <c r="E35" s="13"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -2983,7 +3260,7 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>67</v>
@@ -2992,8 +3269,12 @@
       <c r="D36" s="2"/>
       <c r="E36" s="13"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -3013,7 +3294,7 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>68</v>
@@ -3022,8 +3303,12 @@
       <c r="D37" s="2"/>
       <c r="E37" s="13"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="2"/>
+      <c r="G37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -3043,7 +3328,7 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -3054,8 +3339,12 @@
       <c r="D38" s="2"/>
       <c r="E38" s="13"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -3075,7 +3364,7 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>71</v>
@@ -3084,8 +3373,12 @@
       <c r="D39" s="2"/>
       <c r="E39" s="13"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -3105,79 +3398,97 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C1000 E2:E1000 G2:G1000">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1000 E2:E1000 G2:G1000">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000 F2:F18">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000 F2:F18">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1000">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1000">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1000">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND(ISBLANK(H2),G2="Pass")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1000">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>AND(ISBLANK(H2),G2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C39 E2:E39 G2:G39" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C39 E2:E39 G2:G41" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>